--- a/filmes.xlsx
+++ b/filmes.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henrique.couto\Documents\treinando\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>A Origem</t>
   </si>
@@ -33,18 +28,39 @@
     <t>137</t>
   </si>
   <si>
-    <t>9.0</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>A Viagem de Chihiro</t>
+  </si>
+  <si>
+    <t>O Senhor dos AnÃ©is: O Retorno do Rei</t>
   </si>
   <si>
     <t>Shrek</t>
   </si>
   <si>
+    <t>O Fabuloso Destino de AmÃ©lie Poulain</t>
+  </si>
+  <si>
     <t>Toy Story 3</t>
   </si>
   <si>
+    <t>O Senhor dos AnÃ©is: A Sociedade do Anel</t>
+  </si>
+  <si>
+    <t>Os IncrÃ­veis</t>
+  </si>
+  <si>
+    <t>O Senhor dos AnÃ©is: As Duas Torres</t>
+  </si>
+  <si>
     <t>O Labirinto do Fauno</t>
   </si>
   <si>
+    <t>WALLÂ·E</t>
+  </si>
+  <si>
     <t>Up: Altas Aventuras</t>
   </si>
   <si>
@@ -63,6 +79,87 @@
     <t>O Hobbit: Uma Jornada Inesperada</t>
   </si>
   <si>
+    <t>Homem-Aranha</t>
+  </si>
+  <si>
+    <t>Homem-Aranha 2</t>
+  </si>
+  <si>
+    <t>Homem-Aranha 3</t>
+  </si>
+  <si>
+    <t>Batman Begins</t>
+  </si>
+  <si>
+    <t>Homem-Aranha: De Volta ao Lar</t>
+  </si>
+  <si>
+    <t>Homem-Aranha: Longe de Casa</t>
+  </si>
+  <si>
+    <t>Homem-Aranha: Sem Volta para Casa</t>
+  </si>
+  <si>
+    <t>Uma aventura Lego</t>
+  </si>
+  <si>
+    <t>Frozen: Uma Aventura Congelante</t>
+  </si>
+  <si>
+    <t>Os Vingadores</t>
+  </si>
+  <si>
+    <t>Os Vingadores: Era de Ultron</t>
+  </si>
+  <si>
+    <t>Os Vingadores: Guerra Infinita</t>
+  </si>
+  <si>
+    <t>Os Vingadores: Ultimato</t>
+  </si>
+  <si>
+    <t>CapitÃ£o AmÃ©rica: O Primeiro Vingador</t>
+  </si>
+  <si>
+    <t>CapitÃ£o AmÃ©rica 2: O Soldado Invernal</t>
+  </si>
+  <si>
+    <t>CapitÃ£o AmÃ©rica: Guerra Civil</t>
+  </si>
+  <si>
+    <t>CapitÃ£ Marvel</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Thor: O Mundo Sombrio</t>
+  </si>
+  <si>
+    <t>Thor: Ragnarok</t>
+  </si>
+  <si>
+    <t>GuardiÃµes da GalÃ¡xia</t>
+  </si>
+  <si>
+    <t>GuardiÃµes da GalÃ¡xia Vol. 2</t>
+  </si>
+  <si>
+    <t>Doutor Estranho</t>
+  </si>
+  <si>
+    <t>Homem-Formiga</t>
+  </si>
+  <si>
+    <t>Homem-Formiga e a Vespa</t>
+  </si>
+  <si>
+    <t>ViÃºva Negra</t>
+  </si>
+  <si>
+    <t>Pantera Negra</t>
+  </si>
+  <si>
     <t>Hayao Miyazaki</t>
   </si>
   <si>
@@ -99,32 +196,59 @@
     <t>Rupert Wyatt</t>
   </si>
   <si>
-    <t>WALL·E</t>
-  </si>
-  <si>
-    <t>O Senhor dos Anéis: As Duas Torres</t>
-  </si>
-  <si>
-    <t>O Senhor dos Anéis: A Sociedade do Anel</t>
-  </si>
-  <si>
-    <t>O Fabuloso Destino de Amélie Poulain</t>
-  </si>
-  <si>
-    <t>O Senhor dos Anéis: O Retorno do Rei</t>
-  </si>
-  <si>
-    <t>Os Incríveis</t>
-  </si>
-  <si>
-    <t>A Viagem de Chihiro</t>
+    <t>Sam Raimi</t>
+  </si>
+  <si>
+    <t>Jon Watts</t>
+  </si>
+  <si>
+    <t>Phil Lord</t>
+  </si>
+  <si>
+    <t>Chris Buck</t>
+  </si>
+  <si>
+    <t>Joss Whedon</t>
+  </si>
+  <si>
+    <t>Anthony e Joe Russo</t>
+  </si>
+  <si>
+    <t>Joe Johnston</t>
+  </si>
+  <si>
+    <t>Anna Boden e Ryan Fleck</t>
+  </si>
+  <si>
+    <t>Kenneth Branagh</t>
+  </si>
+  <si>
+    <t>Alan Taylor</t>
+  </si>
+  <si>
+    <t>Taika Waititi</t>
+  </si>
+  <si>
+    <t>James Gunn</t>
+  </si>
+  <si>
+    <t>Scott Derrickson</t>
+  </si>
+  <si>
+    <t>Peyton Reed</t>
+  </si>
+  <si>
+    <t>Cate Shortland</t>
+  </si>
+  <si>
+    <t>Ryan Coogler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,7 +257,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -176,29 +300,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -206,19 +311,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -260,7 +357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,10 +389,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,7 +423,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -503,313 +598,762 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="51.5703125" customWidth="1"/>
-    <col min="2" max="5" width="20.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>2001</v>
+      </c>
+      <c r="D2">
+        <v>125</v>
+      </c>
+      <c r="E2">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>2003</v>
+      </c>
+      <c r="D3">
+        <v>201</v>
+      </c>
+      <c r="E3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>2001</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>2001</v>
+      </c>
+      <c r="D5">
+        <v>122</v>
+      </c>
+      <c r="E5">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>2010</v>
+      </c>
+      <c r="D6">
+        <v>103</v>
+      </c>
+      <c r="E6">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7">
+        <v>2001</v>
+      </c>
+      <c r="D7">
+        <v>178</v>
+      </c>
+      <c r="E7">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>2004</v>
+      </c>
+      <c r="D8">
+        <v>115</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>2002</v>
+      </c>
+      <c r="D9">
+        <v>179</v>
+      </c>
+      <c r="E9">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>2006</v>
+      </c>
+      <c r="D10">
+        <v>118</v>
+      </c>
+      <c r="E10">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>2008</v>
+      </c>
+      <c r="D11">
+        <v>98</v>
+      </c>
+      <c r="E11">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>2009</v>
+      </c>
+      <c r="D12">
+        <v>96</v>
+      </c>
+      <c r="E12">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2008</v>
+      </c>
+      <c r="D13">
+        <v>152</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <v>2014</v>
+      </c>
+      <c r="D14">
+        <v>99</v>
+      </c>
+      <c r="E14">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15">
+        <v>2014</v>
+      </c>
+      <c r="D15">
+        <v>130</v>
+      </c>
+      <c r="E15">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16">
+        <v>2011</v>
+      </c>
+      <c r="D16">
+        <v>105</v>
+      </c>
+      <c r="E16">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>2012</v>
+      </c>
+      <c r="D17">
+        <v>169</v>
+      </c>
+      <c r="E17">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>2002</v>
+      </c>
+      <c r="D18">
+        <v>121</v>
+      </c>
+      <c r="E18">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>2004</v>
+      </c>
+      <c r="D19">
+        <v>127</v>
+      </c>
+      <c r="E19">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <v>2007</v>
+      </c>
+      <c r="D20">
+        <v>139</v>
+      </c>
+      <c r="E20">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2005</v>
+      </c>
+      <c r="D21">
+        <v>140</v>
+      </c>
+      <c r="E21">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>2017</v>
+      </c>
+      <c r="D22">
+        <v>133</v>
+      </c>
+      <c r="E22">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23">
+        <v>2019</v>
+      </c>
+      <c r="D23">
+        <v>129</v>
+      </c>
+      <c r="E23">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24">
+        <v>2021</v>
+      </c>
+      <c r="D24">
+        <v>148</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25">
+        <v>2014</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26">
+        <v>2013</v>
+      </c>
+      <c r="D26">
+        <v>102</v>
+      </c>
+      <c r="E26">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27">
+        <v>2012</v>
+      </c>
+      <c r="D27">
+        <v>143</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <v>2015</v>
+      </c>
+      <c r="D28">
+        <v>141</v>
+      </c>
+      <c r="E28">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D2" s="8">
-        <v>125</v>
-      </c>
-      <c r="E2" s="6">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2003</v>
-      </c>
-      <c r="D3" s="8">
-        <v>201</v>
-      </c>
-      <c r="E3" s="6">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D4" s="8">
-        <v>90</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <v>2018</v>
+      </c>
+      <c r="D29">
+        <v>149</v>
+      </c>
+      <c r="E29">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30">
+        <v>2019</v>
+      </c>
+      <c r="D30">
+        <v>181</v>
+      </c>
+      <c r="E30">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31">
+        <v>2011</v>
+      </c>
+      <c r="D31">
+        <v>124</v>
+      </c>
+      <c r="E31">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <v>2014</v>
+      </c>
+      <c r="D32">
+        <v>136</v>
+      </c>
+      <c r="E32">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33">
+        <v>2016</v>
+      </c>
+      <c r="D33">
+        <v>147</v>
+      </c>
+      <c r="E33">
         <v>7.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D5" s="8">
-        <v>122</v>
-      </c>
-      <c r="E5" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2010</v>
-      </c>
-      <c r="D6" s="8">
-        <v>103</v>
-      </c>
-      <c r="E6" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2001</v>
-      </c>
-      <c r="D7" s="8">
-        <v>178</v>
-      </c>
-      <c r="E7" s="6">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2004</v>
-      </c>
-      <c r="D8" s="8">
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34">
+        <v>2019</v>
+      </c>
+      <c r="D34">
+        <v>123</v>
+      </c>
+      <c r="E34">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35">
+        <v>2011</v>
+      </c>
+      <c r="D35">
         <v>115</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>2013</v>
+      </c>
+      <c r="D36">
+        <v>112</v>
+      </c>
+      <c r="E36">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37">
+        <v>2017</v>
+      </c>
+      <c r="D37">
+        <v>130</v>
+      </c>
+      <c r="E37">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38">
+        <v>2014</v>
+      </c>
+      <c r="D38">
+        <v>121</v>
+      </c>
+      <c r="E38">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2002</v>
-      </c>
-      <c r="D9" s="8">
-        <v>179</v>
-      </c>
-      <c r="E9" s="6">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2006</v>
-      </c>
-      <c r="D10" s="8">
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39">
+        <v>2017</v>
+      </c>
+      <c r="D39">
+        <v>136</v>
+      </c>
+      <c r="E39">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40">
+        <v>2016</v>
+      </c>
+      <c r="D40">
+        <v>115</v>
+      </c>
+      <c r="E40">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41">
+        <v>2015</v>
+      </c>
+      <c r="D41">
+        <v>117</v>
+      </c>
+      <c r="E41">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42">
+        <v>2018</v>
+      </c>
+      <c r="D42">
         <v>118</v>
       </c>
-      <c r="E10" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2008</v>
-      </c>
-      <c r="D11" s="8">
-        <v>98</v>
-      </c>
-      <c r="E11" s="6">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2009</v>
-      </c>
-      <c r="D12" s="8">
-        <v>96</v>
-      </c>
-      <c r="E12" s="6">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2008</v>
-      </c>
-      <c r="D13" s="8">
-        <v>152</v>
-      </c>
-      <c r="E13" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D14" s="8">
-        <v>99</v>
-      </c>
-      <c r="E14" s="6">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2014</v>
-      </c>
-      <c r="D15" s="8">
-        <v>130</v>
-      </c>
-      <c r="E15" s="6">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D16" s="8">
-        <v>105</v>
-      </c>
-      <c r="E16" s="6">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2012</v>
-      </c>
-      <c r="D17" s="8">
-        <v>169</v>
-      </c>
-      <c r="E17" s="6">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
+      <c r="E42">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43">
+        <v>2021</v>
+      </c>
+      <c r="D43">
+        <v>134</v>
+      </c>
+      <c r="E43">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44">
+        <v>2018</v>
+      </c>
+      <c r="D44">
+        <v>134</v>
+      </c>
+      <c r="E44">
+        <v>7.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>